--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748034.6092510042</v>
+        <v>-750569.5801268585</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>196.1623266599246</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>218.1690567639018</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414521</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.85604800581184</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>99.52279851453471</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>80.31859933869178</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>336.0000911313695</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.533183649868</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>127.6752559270057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>87.85604800581301</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>307.9801808572813</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>14.59946548753441</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734099341</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>173.733384620352</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>167.906286080931</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>32.81060261324181</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892424</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>184.6527153981522</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>171.7529993464919</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>192.5100480735121</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T19" t="n">
-        <v>195.7815843840599</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6324680438218387</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>66.43694060668919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>38.76543552489255</v>
       </c>
     </row>
     <row r="32">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808293</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1816.082987429757</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609169</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609169</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609169</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X2" t="n">
-        <v>2952.140063348089</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201684</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>383.3613929424834</v>
+        <v>2914.454705915558</v>
       </c>
       <c r="C4" t="n">
-        <v>214.4252100145765</v>
+        <v>2914.454705915558</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>2764.338066503222</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218338</v>
+        <v>2764.338066503222</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218338</v>
+        <v>2617.448119005312</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218338</v>
+        <v>2617.448119005312</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="V4" t="n">
-        <v>832.1435229840308</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="W4" t="n">
-        <v>832.1435229840308</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="X4" t="n">
-        <v>604.1539720860135</v>
+        <v>3135.247285059088</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.3613929424834</v>
+        <v>2914.454705915558</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1675.730933054504</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="C5" t="n">
-        <v>1306.768416114093</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D5" t="n">
-        <v>948.5027175073421</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E5" t="n">
-        <v>562.7144649090978</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218338</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993391</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993391</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.56518664982</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379706</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118626</v>
+        <v>1938.559102350589</v>
       </c>
       <c r="Y5" t="n">
-        <v>2062.330773118626</v>
+        <v>1548.419770374778</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.3669689068672</v>
+        <v>472.104875776638</v>
       </c>
       <c r="C7" t="n">
-        <v>342.3669689068672</v>
+        <v>303.1686928487311</v>
       </c>
       <c r="D7" t="n">
-        <v>342.3669689068672</v>
+        <v>303.1686928487311</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>155.255599266338</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218338</v>
+        <v>155.255599266338</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438278</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>631.7841389438278</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>342.3669689068672</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>342.3669689068672</v>
+        <v>692.8974549201681</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.3669689068672</v>
+        <v>472.104875776638</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2062.330773118626</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="C8" t="n">
-        <v>1693.368256178214</v>
+        <v>1192.9382557295</v>
       </c>
       <c r="D8" t="n">
-        <v>1335.102557571463</v>
+        <v>834.6725571227498</v>
       </c>
       <c r="E8" t="n">
-        <v>949.3143049732191</v>
+        <v>834.6725571227498</v>
       </c>
       <c r="F8" t="n">
-        <v>538.3284001836116</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>123.2559500286081</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609168</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.62807399339</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.62807399339</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.56518664982</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379705</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118626</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>2062.330773118626</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>234.2149530574644</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574644</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574644</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218336</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218336</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962273</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.645724237293</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.35556815965</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588477</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886951</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068846</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596431</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181838</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181838</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>745.3987385248989</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>523.632123094425</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>523.632123094425</v>
+        <v>751.2846966455274</v>
       </c>
       <c r="V10" t="n">
-        <v>523.632123094425</v>
+        <v>751.2846966455274</v>
       </c>
       <c r="W10" t="n">
-        <v>234.2149530574644</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="X10" t="n">
-        <v>234.2149530574644</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="Y10" t="n">
-        <v>234.2149530574644</v>
+        <v>461.8675266085669</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.9192356072743</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>815.9830526793675</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>665.8664132670317</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>517.9533196846386</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854709</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648822</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750804</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072743</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2023.574667359796</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.499440703994</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.814952498107</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.550723916711</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888042</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.158203687148</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U19" t="n">
-        <v>1893.082977031346</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.398488825459</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.981318788498</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>1120.991767890481</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>900.1991887469508</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1366.593344833982</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1138.603793935964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,31 +6212,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
         <v>402.7245934908939</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>158.5207149607583</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>168.0688818921518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,16 +22708,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>83.84667982315788</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>124.3502537398824</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>164.2815953180162</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>126.1868568745024</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F13" t="n">
-        <v>112.6104454096894</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>67.48492792567583</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.65245098079637</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>59.62759525031589</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856988</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T19" t="n">
-        <v>21.62386594322834</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>251.5051752800062</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>220.0860577299018</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>179.8192178272022</v>
       </c>
     </row>
     <row r="32">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-5.988543122513853e-13</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-9.805489753489383e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -26314,25 +26314,25 @@
         <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
         <v>242143.9799070018</v>
@@ -26344,10 +26344,10 @@
         <v>242143.9799070018</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073563</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291438</v>
+        <v>104482.7459291436</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19318.23781180966</v>
+        <v>19318.23781180947</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26433,13 +26433,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26454,7 +26454,7 @@
         <v>24037.44323498545</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498544</v>
@@ -26473,7 +26473,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248725.803975326</v>
+        <v>-1249051.149065608</v>
       </c>
       <c r="C6" t="n">
-        <v>44781.84629383906</v>
+        <v>44781.8462938389</v>
       </c>
       <c r="D6" t="n">
-        <v>44781.84629383925</v>
+        <v>44781.84629383913</v>
       </c>
       <c r="E6" t="n">
-        <v>-200437.5956961537</v>
+        <v>-200472.3336215881</v>
       </c>
       <c r="F6" t="n">
-        <v>124974.866111203</v>
+        <v>124940.128185767</v>
       </c>
       <c r="G6" t="n">
-        <v>124974.8661112027</v>
+        <v>124940.1281857671</v>
       </c>
       <c r="H6" t="n">
-        <v>124974.8661112028</v>
+        <v>124940.1281857671</v>
       </c>
       <c r="I6" t="n">
-        <v>124974.8661112028</v>
+        <v>124940.128185767</v>
       </c>
       <c r="J6" t="n">
-        <v>-92556.33628607469</v>
+        <v>-92591.07421151047</v>
       </c>
       <c r="K6" t="n">
-        <v>124974.8661112027</v>
+        <v>124940.1281857671</v>
       </c>
       <c r="L6" t="n">
-        <v>124974.8661112027</v>
+        <v>124940.128185767</v>
       </c>
       <c r="M6" t="n">
-        <v>14628.22594124016</v>
+        <v>14628.22594124034</v>
       </c>
       <c r="N6" t="n">
-        <v>119110.9718703841</v>
+        <v>119110.9718703839</v>
       </c>
       <c r="O6" t="n">
         <v>119110.9718703841</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483766</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.529532139305957e-12</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>62.58728282341129</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>65.41877159155955</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>326.5574464030196</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>33.73100954709957</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>18.75870671956349</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>78.16976025321522</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,19 +27828,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>98.89586488443018</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>280.0082988997861</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>16.03564071108997</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>118.3055521246819</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28093,10 +28093,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002947</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7382405950807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159419</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859644</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.9421752903428</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996669</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286435</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.123718484038</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230781</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567571</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106919</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014208</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
